--- a/hebrewOutputs/hebrew82Comperation_2_Common_alpha=0.08.xlsx
+++ b/hebrewOutputs/hebrew82Comperation_2_Common_alpha=0.08.xlsx
@@ -67,12 +67,12 @@
     <t>כן, יואב.</t>
   </si>
   <si>
+    <t>agree</t>
+  </si>
+  <si>
     <t>כן.</t>
   </si>
   <si>
-    <t>agree</t>
-  </si>
-  <si>
     <t>הוא הגיע אתך.</t>
   </si>
   <si>
@@ -196,6 +196,9 @@
     <t>לילד בן חמש?</t>
   </si>
   <si>
+    <t>concern</t>
+  </si>
+  <si>
     <t xml:space="preserve">כן, כן זה זאת מחלה לצערי אוטואימונית ש ש הגוף בעצם מע מערכת </t>
   </si>
   <si>
@@ -212,9 +215,6 @@
   </si>
   <si>
     <t>אני פשוט, אני לא אני בהלם כי.</t>
-  </si>
-  <si>
-    <t>concern</t>
   </si>
   <si>
     <t xml:space="preserve">כי זה לא נראה לך, זה לא נשמע לך, </t>
@@ -810,7 +810,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -838,7 +838,7 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
@@ -846,10 +846,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
         <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
@@ -902,10 +902,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
         <v>17</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
       </c>
       <c r="C13" t="s">
         <v>6</v>
@@ -1006,7 +1006,7 @@
         <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D20" t="s">
         <v>7</v>
@@ -1034,7 +1034,7 @@
         <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D22" t="s">
         <v>7</v>
@@ -1118,7 +1118,7 @@
         <v>23</v>
       </c>
       <c r="C28" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="D28" t="s">
         <v>9</v>
@@ -1126,13 +1126,13 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" t="s">
         <v>17</v>
-      </c>
-      <c r="B29" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" t="s">
-        <v>20</v>
       </c>
       <c r="D29" t="s">
         <v>7</v>
@@ -1199,7 +1199,7 @@
         <v>47</v>
       </c>
       <c r="B34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C34" t="s">
         <v>6</v>
@@ -1252,13 +1252,13 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" t="s">
         <v>17</v>
       </c>
-      <c r="B38" t="s">
-        <v>18</v>
-      </c>
       <c r="C38" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D38" t="s">
         <v>7</v>
@@ -1384,7 +1384,7 @@
         <v>34</v>
       </c>
       <c r="C47" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="D47" t="s">
         <v>9</v>
@@ -1392,7 +1392,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B48" t="s">
         <v>20</v>
@@ -1406,10 +1406,10 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B49" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C49" t="s">
         <v>6</v>
@@ -1420,7 +1420,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B50" t="s">
         <v>26</v>
@@ -1434,10 +1434,10 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B51" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C51" t="s">
         <v>11</v>
@@ -1448,13 +1448,13 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B52" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C52" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="D52" t="s">
         <v>9</v>
@@ -1636,7 +1636,7 @@
         <v>20</v>
       </c>
       <c r="C65" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D65" t="s">
         <v>9</v>
@@ -1770,13 +1770,13 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
+        <v>18</v>
+      </c>
+      <c r="B75" t="s">
         <v>17</v>
       </c>
-      <c r="B75" t="s">
-        <v>18</v>
-      </c>
       <c r="C75" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D75" t="s">
         <v>7</v>
@@ -1790,7 +1790,7 @@
         <v>26</v>
       </c>
       <c r="C76" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D76" t="s">
         <v>9</v>
@@ -1801,10 +1801,10 @@
         <v>92</v>
       </c>
       <c r="B77" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C77" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D77" t="s">
         <v>7</v>
@@ -1913,10 +1913,10 @@
         <v>101</v>
       </c>
       <c r="B85" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C85" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="D85" t="s">
         <v>9</v>
@@ -1941,7 +1941,7 @@
         <v>103</v>
       </c>
       <c r="B87" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C87" t="s">
         <v>26</v>
@@ -1955,10 +1955,10 @@
         <v>104</v>
       </c>
       <c r="B88" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C88" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D88" t="s">
         <v>7</v>
@@ -2025,10 +2025,10 @@
         <v>108</v>
       </c>
       <c r="B93" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C93" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D93" t="s">
         <v>9</v>
@@ -2039,7 +2039,7 @@
         <v>109</v>
       </c>
       <c r="B94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C94" t="s">
         <v>6</v>
@@ -2098,7 +2098,7 @@
         <v>11</v>
       </c>
       <c r="C98" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="D98" t="s">
         <v>7</v>
@@ -2126,7 +2126,7 @@
         <v>45</v>
       </c>
       <c r="C100" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="D100" t="s">
         <v>7</v>
@@ -2182,7 +2182,7 @@
         <v>45</v>
       </c>
       <c r="C104" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D104" t="s">
         <v>7</v>
@@ -2193,7 +2193,7 @@
         <v>121</v>
       </c>
       <c r="B105" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C105" t="s">
         <v>6</v>
